--- a/Code/Results/Cases/Case_6_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_52/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.547683480776129</v>
+        <v>2.547683480776016</v>
       </c>
       <c r="C2">
-        <v>0.5894118871882199</v>
+        <v>0.5894118871883052</v>
       </c>
       <c r="D2">
-        <v>0.08814574633163375</v>
+        <v>0.08814574633198191</v>
       </c>
       <c r="E2">
-        <v>0.0154714290236253</v>
+        <v>0.01547142902369902</v>
       </c>
       <c r="F2">
-        <v>6.853028714701281</v>
+        <v>6.85302871470131</v>
       </c>
       <c r="G2">
-        <v>0.0008181738097013988</v>
+        <v>0.0008181738097484891</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1456321625047678</v>
+        <v>0.1456321625047465</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5331851891456623</v>
+        <v>0.5331851891456409</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.201675675719798</v>
+        <v>2.201675675719741</v>
       </c>
       <c r="C3">
-        <v>0.5050599847656088</v>
+        <v>0.5050599847657509</v>
       </c>
       <c r="D3">
-        <v>0.07555688829596363</v>
+        <v>0.075556888295786</v>
       </c>
       <c r="E3">
-        <v>0.01573051120170721</v>
+        <v>0.01573051120175606</v>
       </c>
       <c r="F3">
-        <v>6.136659261331403</v>
+        <v>6.136659261331431</v>
       </c>
       <c r="G3">
-        <v>0.0008298469072959595</v>
+        <v>0.0008298469072390083</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1345438433342281</v>
+        <v>0.1345438433342636</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4645848587985881</v>
+        <v>0.4645848587985952</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.995451429073228</v>
+        <v>1.995451429073057</v>
       </c>
       <c r="C4">
-        <v>0.4549049906549101</v>
+        <v>0.4549049906547111</v>
       </c>
       <c r="D4">
-        <v>0.06802613490570053</v>
+        <v>0.06802613490546605</v>
       </c>
       <c r="E4">
-        <v>0.01591559869834569</v>
+        <v>0.0159155986983297</v>
       </c>
       <c r="F4">
         <v>5.709007093523155</v>
       </c>
       <c r="G4">
-        <v>0.0008371588497719697</v>
+        <v>0.0008371588498583893</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1279621800679962</v>
+        <v>0.1279621800680104</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4238797104113416</v>
+        <v>0.4238797104113345</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.912771441925202</v>
+        <v>1.912771441925031</v>
       </c>
       <c r="C5">
-        <v>0.4348205225760466</v>
+        <v>0.4348205225757908</v>
       </c>
       <c r="D5">
-        <v>0.06499894822378138</v>
+        <v>0.06499894822359664</v>
       </c>
       <c r="E5">
-        <v>0.01599744601105613</v>
+        <v>0.01599744601104636</v>
       </c>
       <c r="F5">
-        <v>5.537380622833751</v>
+        <v>5.537380622833723</v>
       </c>
       <c r="G5">
-        <v>0.0008401784083806403</v>
+        <v>0.0008401784084734795</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1253301360842798</v>
+        <v>0.1253301360844574</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4076043640946878</v>
+        <v>0.4076043640946736</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.899118882010782</v>
+        <v>1.899118882010555</v>
       </c>
       <c r="C6">
-        <v>0.4315053377094955</v>
+        <v>0.4315053377096376</v>
       </c>
       <c r="D6">
-        <v>0.06449857475919885</v>
+        <v>0.06449857475924858</v>
       </c>
       <c r="E6">
-        <v>0.01601142143931433</v>
+        <v>0.01601142143929479</v>
       </c>
       <c r="F6">
-        <v>5.509030421617666</v>
+        <v>5.509030421617581</v>
       </c>
       <c r="G6">
-        <v>0.0008406823087863818</v>
+        <v>0.0008406823087379293</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.124895920052694</v>
+        <v>0.1248959200528148</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.404919534186611</v>
+        <v>0.4049195341865826</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>1.994331136710457</v>
       </c>
       <c r="C7">
-        <v>0.4546327621557964</v>
+        <v>0.4546327621555122</v>
       </c>
       <c r="D7">
-        <v>0.06798515093194624</v>
+        <v>0.06798515093199597</v>
       </c>
       <c r="E7">
-        <v>0.01591667665965968</v>
+        <v>0.01591667665962593</v>
       </c>
       <c r="F7">
-        <v>5.706682294936769</v>
+        <v>5.706682294936854</v>
       </c>
       <c r="G7">
-        <v>0.0008371994068456316</v>
+        <v>0.000837199406697898</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1279264894513616</v>
+        <v>0.1279264894513403</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4236590049649038</v>
+        <v>0.4236590049648967</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.426955283860764</v>
+        <v>2.426955283861048</v>
       </c>
       <c r="C8">
-        <v>0.5599506158594068</v>
+        <v>0.5599506158597478</v>
       </c>
       <c r="D8">
-        <v>0.08375851675990731</v>
+        <v>0.08375851675980073</v>
       </c>
       <c r="E8">
-        <v>0.01555528651082749</v>
+        <v>0.01555528651085858</v>
       </c>
       <c r="F8">
-        <v>6.603222688541905</v>
+        <v>6.60322268854182</v>
       </c>
       <c r="G8">
-        <v>0.0008221709180489941</v>
+        <v>0.0008221709180632201</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1417574531823362</v>
+        <v>0.1417574531823931</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.335534169291975</v>
+        <v>3.335534169291691</v>
       </c>
       <c r="C9">
         <v>0.7824880133161969</v>
       </c>
       <c r="D9">
-        <v>0.1167000344917284</v>
+        <v>0.1167000344914584</v>
       </c>
       <c r="E9">
-        <v>0.01505919302034631</v>
+        <v>0.01505919302040759</v>
       </c>
       <c r="F9">
-        <v>8.480033098156241</v>
+        <v>8.480033098156298</v>
       </c>
       <c r="G9">
-        <v>0.000793665901156008</v>
+        <v>0.0007936659013668182</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6904843926424533</v>
+        <v>0.6904843926424675</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.057568489840776</v>
+        <v>4.057568489840719</v>
       </c>
       <c r="C10">
-        <v>0.960749927133179</v>
+        <v>0.9607499271331221</v>
       </c>
       <c r="D10">
-        <v>0.1428357272765339</v>
+        <v>0.1428357272765055</v>
       </c>
       <c r="E10">
-        <v>0.01483463489342451</v>
+        <v>0.01483463489341919</v>
       </c>
       <c r="F10">
-        <v>9.967092424752423</v>
+        <v>9.967092424752593</v>
       </c>
       <c r="G10">
-        <v>0.0007730154279518348</v>
+        <v>0.0007730154280640518</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1944521402131514</v>
+        <v>0.1944521402131159</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8356552403514428</v>
+        <v>0.835655240351457</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.402833106294338</v>
+        <v>4.402833106294167</v>
       </c>
       <c r="C11">
-        <v>1.046458808182564</v>
+        <v>1.046458808183417</v>
       </c>
       <c r="D11">
-        <v>0.1553416830308407</v>
+        <v>0.1553416830307128</v>
       </c>
       <c r="E11">
-        <v>0.01476574362796867</v>
+        <v>0.01476574362803706</v>
       </c>
       <c r="F11">
-        <v>10.67697149773102</v>
+        <v>10.67697149773124</v>
       </c>
       <c r="G11">
-        <v>0.000763602682224061</v>
+        <v>0.0007636026823137138</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2056796529199687</v>
+        <v>0.2056796529200255</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9053473291286736</v>
+        <v>0.9053473291287446</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.536506628855591</v>
+        <v>4.536506628855648</v>
       </c>
       <c r="C12">
-        <v>1.079725486324463</v>
+        <v>1.07972548632452</v>
       </c>
       <c r="D12">
-        <v>0.160186334664985</v>
+        <v>0.1601863346648429</v>
       </c>
       <c r="E12">
-        <v>0.01474473714529623</v>
+        <v>0.01474473714527402</v>
       </c>
       <c r="F12">
-        <v>10.95160656374304</v>
+        <v>10.95160656374298</v>
       </c>
       <c r="G12">
-        <v>0.0007600272225875968</v>
+        <v>0.0007600272224799345</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2100307486346935</v>
+        <v>0.2100307486346296</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9323718585392982</v>
+        <v>0.9323718585392697</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.507578092216647</v>
+        <v>4.507578092216534</v>
       </c>
       <c r="C13">
-        <v>1.07252219551998</v>
+        <v>1.072522195519895</v>
       </c>
       <c r="D13">
-        <v>0.1591377425028924</v>
+        <v>0.1591377425030061</v>
       </c>
       <c r="E13">
-        <v>0.01474902991776084</v>
+        <v>0.01474902991776439</v>
       </c>
       <c r="F13">
-        <v>10.892181868992</v>
+        <v>10.89218186899222</v>
       </c>
       <c r="G13">
-        <v>0.0007607979045205748</v>
+        <v>0.0007607979044986179</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2090889376654914</v>
+        <v>0.2090889376655838</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9265215001496543</v>
+        <v>0.9265215001496756</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.413768498130764</v>
+        <v>4.413768498130935</v>
       </c>
       <c r="C14">
-        <v>1.049178483467131</v>
+        <v>1.049178483467074</v>
       </c>
       <c r="D14">
-        <v>0.1557379423370833</v>
+        <v>0.1557379423370406</v>
       </c>
       <c r="E14">
-        <v>0.01476391166675306</v>
+        <v>0.01476391166673352</v>
       </c>
       <c r="F14">
-        <v>10.69944274157962</v>
+        <v>10.69944274157956</v>
       </c>
       <c r="G14">
-        <v>0.000763308802543449</v>
+        <v>0.000763308802415084</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2060355194859227</v>
+        <v>0.2060355194858232</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9075572558484453</v>
+        <v>0.9075572558483955</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.356705841050029</v>
+        <v>4.356705841049859</v>
       </c>
       <c r="C15">
-        <v>1.034990217219104</v>
+        <v>1.034990217218223</v>
       </c>
       <c r="D15">
-        <v>0.1536703193222877</v>
+        <v>0.1536703193223019</v>
       </c>
       <c r="E15">
-        <v>0.01477369869894929</v>
+        <v>0.01477369869890488</v>
       </c>
       <c r="F15">
-        <v>10.58217578147821</v>
+        <v>10.58217578147816</v>
       </c>
       <c r="G15">
-        <v>0.0007648450839425025</v>
+        <v>0.0007648450839481684</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2041787170991611</v>
+        <v>0.2041787170991114</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8960272123912389</v>
+        <v>0.8960272123912816</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.035384407374295</v>
+        <v>4.035384407374465</v>
       </c>
       <c r="C16">
-        <v>0.9552534276041058</v>
+        <v>0.955253427604049</v>
       </c>
       <c r="D16">
-        <v>0.1420324857040214</v>
+        <v>0.1420324857042203</v>
       </c>
       <c r="E16">
-        <v>0.01483983064550287</v>
+        <v>0.01483983064549044</v>
       </c>
       <c r="F16">
-        <v>9.921454881032446</v>
+        <v>9.921454881032474</v>
       </c>
       <c r="G16">
-        <v>0.0007736295166682846</v>
+        <v>0.0007736295166624387</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1937313390815021</v>
+        <v>0.1937313390816584</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8311829939687172</v>
+        <v>0.8311829939686746</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.842903334650373</v>
+        <v>3.842903334650657</v>
       </c>
       <c r="C17">
-        <v>0.9076153863704235</v>
+        <v>0.907615386370793</v>
       </c>
       <c r="D17">
-        <v>0.1350642241111615</v>
+        <v>0.1350642241113604</v>
       </c>
       <c r="E17">
-        <v>0.01488911478723942</v>
+        <v>0.01488911478739574</v>
       </c>
       <c r="F17">
-        <v>9.52534479906592</v>
+        <v>9.525344799065977</v>
       </c>
       <c r="G17">
-        <v>0.0007790082118281555</v>
+        <v>0.000779008211935866</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1874806310635506</v>
+        <v>0.1874806310634511</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.792409497157557</v>
+        <v>0.7924094971574931</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.733739458833952</v>
+        <v>3.733739458834009</v>
       </c>
       <c r="C18">
-        <v>0.8806394711923815</v>
+        <v>0.8806394711918131</v>
       </c>
       <c r="D18">
-        <v>0.1311128969816338</v>
+        <v>0.1311128969818185</v>
       </c>
       <c r="E18">
-        <v>0.01492057164804717</v>
+        <v>0.01492057164808447</v>
       </c>
       <c r="F18">
-        <v>9.30058651295829</v>
+        <v>9.300586512958375</v>
       </c>
       <c r="G18">
-        <v>0.0007821007143393896</v>
+        <v>0.0007821007144438118</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.183938442155501</v>
+        <v>0.1839384421554158</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7704442721401819</v>
+        <v>0.7704442721401392</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.697029957675852</v>
+        <v>3.697029957676079</v>
       </c>
       <c r="C19">
-        <v>0.8715747456650433</v>
+        <v>0.8715747456654981</v>
       </c>
       <c r="D19">
-        <v>0.1297842169403225</v>
+        <v>0.1297842169405214</v>
       </c>
       <c r="E19">
-        <v>0.01493174832522381</v>
+        <v>0.01493174832522026</v>
       </c>
       <c r="F19">
         <v>9.224987238461722</v>
       </c>
       <c r="G19">
-        <v>0.000783147809480772</v>
+        <v>0.0007831478094803291</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1827477719177395</v>
+        <v>0.1827477719177324</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7630620109570287</v>
+        <v>0.7630620109570572</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.86322985520718</v>
+        <v>3.863229855207237</v>
       </c>
       <c r="C20">
-        <v>0.912641661451346</v>
+        <v>0.9126416614514028</v>
       </c>
       <c r="D20">
-        <v>0.135800011840189</v>
+        <v>0.1358000118401748</v>
       </c>
       <c r="E20">
-        <v>0.01488354455560437</v>
+        <v>0.01488354455548091</v>
       </c>
       <c r="F20">
         <v>9.567186522397805</v>
       </c>
       <c r="G20">
-        <v>0.0007784358185529281</v>
+        <v>0.0007784358185503939</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1881404280737087</v>
+        <v>0.1881404280737868</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.441238554448944</v>
+        <v>4.441238554448773</v>
       </c>
       <c r="C21">
-        <v>1.056011777756879</v>
+        <v>1.056011777756851</v>
       </c>
       <c r="D21">
-        <v>0.1567334088275061</v>
+        <v>0.156733408827705</v>
       </c>
       <c r="E21">
-        <v>0.01475939997528286</v>
+        <v>0.01475939997531217</v>
       </c>
       <c r="F21">
-        <v>10.75588788615812</v>
+        <v>10.75588788615823</v>
       </c>
       <c r="G21">
-        <v>0.0007625716654918174</v>
+        <v>0.0007625716655882478</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2069295336939447</v>
+        <v>0.2069295336941224</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9131093452089871</v>
+        <v>0.9131093452089587</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.836392212585338</v>
+        <v>4.836392212585167</v>
       </c>
       <c r="C22">
-        <v>1.154528833012193</v>
+        <v>1.154528833012023</v>
       </c>
       <c r="D22">
-        <v>0.1710619448484891</v>
+        <v>0.171061944848816</v>
       </c>
       <c r="E22">
-        <v>0.01470806328521945</v>
+        <v>0.01470806328514573</v>
       </c>
       <c r="F22">
-        <v>11.56731632543438</v>
+        <v>11.56731632543466</v>
       </c>
       <c r="G22">
-        <v>0.0007521339279131304</v>
+        <v>0.0007521339279928445</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2197993826207778</v>
+        <v>0.2197993826207565</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.9930798628701822</v>
+        <v>0.9930798628701183</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>4.623702430905212</v>
       </c>
       <c r="C23">
-        <v>1.101450883925963</v>
+        <v>1.10145088392639</v>
       </c>
       <c r="D23">
-        <v>0.1633475153695798</v>
+        <v>0.1633475153691393</v>
       </c>
       <c r="E23">
-        <v>0.01473262193685709</v>
+        <v>0.01473262193686242</v>
       </c>
       <c r="F23">
         <v>11.13069122595778</v>
       </c>
       <c r="G23">
-        <v>0.0007577143250634376</v>
+        <v>0.0007577143250657481</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2128701175523062</v>
+        <v>0.212870117552221</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9500122231060075</v>
+        <v>0.9500122231060217</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>3.854035612618532</v>
       </c>
       <c r="C24">
-        <v>0.9103680103659144</v>
+        <v>0.9103680103659713</v>
       </c>
       <c r="D24">
-        <v>0.1354671929236986</v>
+        <v>0.1354671929239117</v>
       </c>
       <c r="E24">
-        <v>0.01488605315225833</v>
+        <v>0.01488605315232405</v>
       </c>
       <c r="F24">
-        <v>9.548260700192117</v>
+        <v>9.548260700192031</v>
       </c>
       <c r="G24">
-        <v>0.0007786945963478048</v>
+        <v>0.0007786945963502003</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1878419748710272</v>
+        <v>0.1878419748711835</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7946504874568845</v>
+        <v>0.7946504874568916</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.081628970938539</v>
+        <v>3.081628970938766</v>
       </c>
       <c r="C25">
-        <v>0.7201055238297727</v>
+        <v>0.7201055238298011</v>
       </c>
       <c r="D25">
-        <v>0.1075068894534468</v>
+        <v>0.1075068894535178</v>
       </c>
       <c r="E25">
-        <v>0.01516967749212927</v>
+        <v>0.01516967749207776</v>
       </c>
       <c r="F25">
-        <v>7.956236792058064</v>
+        <v>7.956236792057979</v>
       </c>
       <c r="G25">
-        <v>0.0008013017514848368</v>
+        <v>0.0008013017517164143</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1628301657761284</v>
+        <v>0.162830165776171</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6396477346311897</v>
+        <v>0.6396477346312253</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.547683480776016</v>
+        <v>2.461712566255699</v>
       </c>
       <c r="C2">
-        <v>0.5894118871883052</v>
+        <v>0.789684349954598</v>
       </c>
       <c r="D2">
-        <v>0.08814574633198191</v>
+        <v>0.07230137103501733</v>
       </c>
       <c r="E2">
-        <v>0.01547142902369902</v>
+        <v>0.06263109980961445</v>
       </c>
       <c r="F2">
-        <v>6.85302871470131</v>
+        <v>1.067110937201249</v>
       </c>
       <c r="G2">
-        <v>0.0008181738097484891</v>
+        <v>0.8019185111916443</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0004574842019904324</v>
       </c>
       <c r="J2">
-        <v>0.1456321625047465</v>
+        <v>0.5456202746423457</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4108138557293266</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0722932926305262</v>
       </c>
       <c r="M2">
-        <v>0.5331851891456409</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.7078908761418106</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.201675675719741</v>
+        <v>2.140653722937941</v>
       </c>
       <c r="C3">
-        <v>0.5050599847657509</v>
+        <v>0.6850968675064735</v>
       </c>
       <c r="D3">
-        <v>0.075556888295786</v>
+        <v>0.0662414064269683</v>
       </c>
       <c r="E3">
-        <v>0.01573051120175606</v>
+        <v>0.05962203158736301</v>
       </c>
       <c r="F3">
-        <v>6.136659261331431</v>
+        <v>1.008156766682035</v>
       </c>
       <c r="G3">
-        <v>0.0008298469072390083</v>
+        <v>0.7504022446908891</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0009836415706971913</v>
       </c>
       <c r="J3">
-        <v>0.1345438433342636</v>
+        <v>0.5291174526060018</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4094652607601503</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.07084127507170379</v>
       </c>
       <c r="M3">
-        <v>0.4645848587985952</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6170540151637169</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.995451429073057</v>
+        <v>1.943734543863627</v>
       </c>
       <c r="C4">
-        <v>0.4549049906547111</v>
+        <v>0.6216529854051487</v>
       </c>
       <c r="D4">
-        <v>0.06802613490546605</v>
+        <v>0.06262405196946474</v>
       </c>
       <c r="E4">
-        <v>0.0159155986983297</v>
+        <v>0.05787537699334955</v>
       </c>
       <c r="F4">
-        <v>5.709007093523155</v>
+        <v>0.9734645555509474</v>
       </c>
       <c r="G4">
-        <v>0.0008371588498583893</v>
+        <v>0.719968450847432</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001757364075511969</v>
       </c>
       <c r="J4">
-        <v>0.1279621800680104</v>
+        <v>0.5197073663587162</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4091965911169737</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.070083452408646</v>
       </c>
       <c r="M4">
-        <v>0.4238797104113345</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5616615947550514</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.912771441925031</v>
+        <v>1.863335513876052</v>
       </c>
       <c r="C5">
-        <v>0.4348205225757908</v>
+        <v>0.5969722798448345</v>
       </c>
       <c r="D5">
-        <v>0.06499894822359664</v>
+        <v>0.06128698855971493</v>
       </c>
       <c r="E5">
-        <v>0.01599744601104636</v>
+        <v>0.0572032407869294</v>
       </c>
       <c r="F5">
-        <v>5.537380622833723</v>
+        <v>0.9583492506741607</v>
       </c>
       <c r="G5">
-        <v>0.0008401784084734795</v>
+        <v>0.7064976123428863</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002252580319455966</v>
       </c>
       <c r="J5">
-        <v>0.1253301360844574</v>
+        <v>0.5153523628657268</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4084206301281128</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.06976782482937338</v>
       </c>
       <c r="M5">
-        <v>0.4076043640946736</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5394205732196653</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.899118882010555</v>
+        <v>1.849767885952588</v>
       </c>
       <c r="C6">
-        <v>0.4315053377096376</v>
+        <v>0.5941096640993635</v>
       </c>
       <c r="D6">
-        <v>0.06449857475924858</v>
+        <v>0.06120404210712849</v>
       </c>
       <c r="E6">
-        <v>0.01601142143929479</v>
+        <v>0.05711203260856834</v>
       </c>
       <c r="F6">
-        <v>5.509030421617581</v>
+        <v>0.9542345491080795</v>
       </c>
       <c r="G6">
-        <v>0.0008406823087379293</v>
+        <v>0.7026330447809954</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.002438429683313537</v>
       </c>
       <c r="J6">
-        <v>0.1248959200528148</v>
+        <v>0.5137949479493358</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4073251490493384</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.06966995977799328</v>
       </c>
       <c r="M6">
-        <v>0.4049195341865826</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5360357788606578</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.994331136710457</v>
+        <v>1.942049390212105</v>
       </c>
       <c r="C7">
-        <v>0.4546327621555122</v>
+        <v>0.6246740899139809</v>
       </c>
       <c r="D7">
-        <v>0.06798515093199597</v>
+        <v>0.06298165133492262</v>
       </c>
       <c r="E7">
-        <v>0.01591667665962593</v>
+        <v>0.05791808586080904</v>
       </c>
       <c r="F7">
-        <v>5.706682294936854</v>
+        <v>0.968817578915818</v>
       </c>
       <c r="G7">
-        <v>0.000837199406697898</v>
+        <v>0.7152913517318495</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002011584531741661</v>
       </c>
       <c r="J7">
-        <v>0.1279264894513403</v>
+        <v>0.5173420294638902</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4065244346882793</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.06995008790626045</v>
       </c>
       <c r="M7">
-        <v>0.4236590049648967</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5621910623965505</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.426955283861048</v>
+        <v>2.350133125374327</v>
       </c>
       <c r="C8">
-        <v>0.5599506158597478</v>
+        <v>0.7579259403205754</v>
       </c>
       <c r="D8">
-        <v>0.08375851675980073</v>
+        <v>0.07068777692050787</v>
       </c>
       <c r="E8">
-        <v>0.01555528651085858</v>
+        <v>0.06164077463808937</v>
       </c>
       <c r="F8">
-        <v>6.60322268854182</v>
+        <v>1.040571269579118</v>
       </c>
       <c r="G8">
-        <v>0.0008221709180632201</v>
+        <v>0.7779330632018002</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.000827775672929576</v>
       </c>
       <c r="J8">
-        <v>0.1417574531823931</v>
+        <v>0.5367256024737088</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4067174823390758</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07159442669668437</v>
       </c>
       <c r="M8">
-        <v>0.5092100634726791</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6775846532842706</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.335534169291691</v>
+        <v>3.154586019351711</v>
       </c>
       <c r="C9">
-        <v>0.7824880133161969</v>
+        <v>1.020325762745813</v>
       </c>
       <c r="D9">
-        <v>0.1167000344914584</v>
+        <v>0.08600596939858463</v>
       </c>
       <c r="E9">
-        <v>0.01505919302040759</v>
+        <v>0.06970785848813321</v>
       </c>
       <c r="F9">
-        <v>8.480033098156298</v>
+        <v>1.202500569038406</v>
       </c>
       <c r="G9">
-        <v>0.0007936659013668182</v>
+        <v>0.9195434254357764</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.002068505063893333</v>
       </c>
       <c r="J9">
-        <v>0.1710372942041261</v>
+        <v>0.5851349721241519</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4166949602003953</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.07619177423613621</v>
       </c>
       <c r="M9">
-        <v>0.6904843926424675</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.9060037234212786</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.057568489840719</v>
+        <v>3.74934646555613</v>
       </c>
       <c r="C10">
-        <v>0.9607499271331221</v>
+        <v>1.220744534556559</v>
       </c>
       <c r="D10">
-        <v>0.1428357272765055</v>
+        <v>0.09807405218145959</v>
       </c>
       <c r="E10">
-        <v>0.01483463489341919</v>
+        <v>0.07627409174977373</v>
       </c>
       <c r="F10">
-        <v>9.967092424752593</v>
+        <v>1.329325619067347</v>
       </c>
       <c r="G10">
-        <v>0.0007730154280640518</v>
+        <v>1.029688107100981</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.005987776216447749</v>
       </c>
       <c r="J10">
-        <v>0.1944521402131159</v>
+        <v>0.6242115363836547</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4263141895931213</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08032928724180266</v>
       </c>
       <c r="M10">
-        <v>0.835655240351457</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.077351399251974</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.402833106294167</v>
+        <v>4.020227508257392</v>
       </c>
       <c r="C11">
-        <v>1.046458808183417</v>
+        <v>1.31928275500934</v>
       </c>
       <c r="D11">
-        <v>0.1553416830307128</v>
+        <v>0.1043463233055633</v>
       </c>
       <c r="E11">
-        <v>0.01476574362803706</v>
+        <v>0.07950242597226875</v>
       </c>
       <c r="F11">
-        <v>10.67697149773124</v>
+        <v>1.382396928710847</v>
       </c>
       <c r="G11">
-        <v>0.0007636026823137138</v>
+        <v>1.074654910918255</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.008849186588753888</v>
       </c>
       <c r="J11">
-        <v>0.2056796529200255</v>
+        <v>0.6394477669587246</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4273506786156744</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08221511810337745</v>
       </c>
       <c r="M11">
-        <v>0.9053473291287446</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.157570048468273</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.536506628855648</v>
+        <v>4.123633253639582</v>
       </c>
       <c r="C12">
-        <v>1.07972548632452</v>
+        <v>1.353855175065462</v>
       </c>
       <c r="D12">
-        <v>0.1601863346648429</v>
+        <v>0.1064145947838</v>
       </c>
       <c r="E12">
-        <v>0.01474473714527402</v>
+        <v>0.08070318228772067</v>
       </c>
       <c r="F12">
-        <v>10.95160656374298</v>
+        <v>1.40679446477327</v>
       </c>
       <c r="G12">
-        <v>0.0007600272224799345</v>
+        <v>1.095974746870084</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.009877091800158055</v>
       </c>
       <c r="J12">
-        <v>0.2100307486346296</v>
+        <v>0.6474042801190478</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4301677818337026</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08307148426288791</v>
       </c>
       <c r="M12">
-        <v>0.9323718585392697</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.187367239046139</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.507578092216534</v>
+        <v>4.101468560889032</v>
       </c>
       <c r="C13">
-        <v>1.072522195519895</v>
+        <v>1.345787257325128</v>
       </c>
       <c r="D13">
-        <v>0.1591377425030061</v>
+        <v>0.105901127493226</v>
       </c>
       <c r="E13">
-        <v>0.01474902991776439</v>
+        <v>0.08043420860848016</v>
       </c>
       <c r="F13">
-        <v>10.89218186899222</v>
+        <v>1.402299517160529</v>
       </c>
       <c r="G13">
-        <v>0.0007607979044986179</v>
+        <v>1.092156266110919</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.009612896273865523</v>
       </c>
       <c r="J13">
-        <v>0.2090889376655838</v>
+        <v>0.6460827236899291</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4300106940999484</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08290751830136145</v>
       </c>
       <c r="M13">
-        <v>0.9265215001496756</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.180796160532495</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.413768498130935</v>
+        <v>4.028779221244349</v>
       </c>
       <c r="C14">
-        <v>1.049178483467074</v>
+        <v>1.32186261566568</v>
       </c>
       <c r="D14">
-        <v>0.1557379423370406</v>
+        <v>0.1044875585644149</v>
       </c>
       <c r="E14">
-        <v>0.01476391166673352</v>
+        <v>0.07959678363165423</v>
       </c>
       <c r="F14">
-        <v>10.69944274157956</v>
+        <v>1.384726187717433</v>
       </c>
       <c r="G14">
-        <v>0.000763308802415084</v>
+        <v>1.076736783645799</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.008915053953984398</v>
       </c>
       <c r="J14">
-        <v>0.2060355194858232</v>
+        <v>0.640268640445413</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4277732351089654</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08229423564696248</v>
       </c>
       <c r="M14">
-        <v>0.9075572558483955</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>1.159956030302098</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.356705841049859</v>
+        <v>3.984059095610235</v>
       </c>
       <c r="C15">
-        <v>1.034990217218223</v>
+        <v>1.308443857463715</v>
       </c>
       <c r="D15">
-        <v>0.1536703193223019</v>
+        <v>0.1037567288319536</v>
       </c>
       <c r="E15">
-        <v>0.01477369869890488</v>
+        <v>0.07910527241624976</v>
       </c>
       <c r="F15">
-        <v>10.58217578147816</v>
+        <v>1.372486332709641</v>
       </c>
       <c r="G15">
-        <v>0.0007648450839481684</v>
+        <v>1.065787208878433</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.008581970871265554</v>
       </c>
       <c r="J15">
-        <v>0.2041787170991114</v>
+        <v>0.6359442741044887</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4255247802491198</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08187964678690207</v>
       </c>
       <c r="M15">
-        <v>0.8960272123912816</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>1.14749987577872</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.035384407374465</v>
+        <v>3.729753321019302</v>
       </c>
       <c r="C16">
-        <v>0.955253427604049</v>
+        <v>1.224409333722576</v>
       </c>
       <c r="D16">
-        <v>0.1420324857042203</v>
+        <v>0.09877462968472628</v>
       </c>
       <c r="E16">
-        <v>0.01483983064549044</v>
+        <v>0.07621967771235916</v>
       </c>
       <c r="F16">
-        <v>9.921454881032474</v>
+        <v>1.31299058798021</v>
       </c>
       <c r="G16">
-        <v>0.0007736295166624387</v>
+        <v>1.013696283110619</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.006433212224583151</v>
       </c>
       <c r="J16">
-        <v>0.1937313390816584</v>
+        <v>0.6165857433823021</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4186736079889855</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0798449204308227</v>
       </c>
       <c r="M16">
-        <v>0.8311829939686746</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>1.074562042004921</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.842903334650657</v>
+        <v>3.574153799121746</v>
       </c>
       <c r="C17">
-        <v>0.907615386370793</v>
+        <v>1.173259791758369</v>
       </c>
       <c r="D17">
-        <v>0.1350642241113604</v>
+        <v>0.0957550403462335</v>
       </c>
       <c r="E17">
-        <v>0.01488911478739574</v>
+        <v>0.07448970216259809</v>
       </c>
       <c r="F17">
-        <v>9.525344799065977</v>
+        <v>1.277265239056703</v>
       </c>
       <c r="G17">
-        <v>0.000779008211935866</v>
+        <v>0.9824073353939724</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.005324368987924544</v>
       </c>
       <c r="J17">
-        <v>0.1874806310634511</v>
+        <v>0.6050626355019944</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4147540557703095</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07865357007830198</v>
       </c>
       <c r="M17">
-        <v>0.7924094971574931</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>1.030050015469726</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.733739458834009</v>
+        <v>3.485367320823627</v>
       </c>
       <c r="C18">
-        <v>0.8806394711918131</v>
+        <v>1.140929816226105</v>
       </c>
       <c r="D18">
-        <v>0.1311128969818185</v>
+        <v>0.09369525422048497</v>
       </c>
       <c r="E18">
-        <v>0.01492057164808447</v>
+        <v>0.07346245467638823</v>
       </c>
       <c r="F18">
-        <v>9.300586512958375</v>
+        <v>1.260887424484224</v>
       </c>
       <c r="G18">
-        <v>0.0007821007144438118</v>
+        <v>0.9685930331261545</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.004531337528678847</v>
       </c>
       <c r="J18">
-        <v>0.1839384421554158</v>
+        <v>0.6005676929375454</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4148861876678112</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07809912837251431</v>
       </c>
       <c r="M18">
-        <v>0.7704442721401392</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>1.003790233450623</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.697029957676079</v>
+        <v>3.454883752367607</v>
       </c>
       <c r="C19">
-        <v>0.8715747456654981</v>
+        <v>1.132356932385903</v>
       </c>
       <c r="D19">
-        <v>0.1297842169405214</v>
+        <v>0.09325908140722561</v>
       </c>
       <c r="E19">
-        <v>0.01493174832522026</v>
+        <v>0.07315281613714575</v>
       </c>
       <c r="F19">
-        <v>9.224987238461722</v>
+        <v>1.252377396699657</v>
       </c>
       <c r="G19">
-        <v>0.0007831478094803291</v>
+        <v>0.9609058163577373</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.004447735958200916</v>
       </c>
       <c r="J19">
-        <v>0.1827477719177324</v>
+        <v>0.5975160383626132</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4131821935692201</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07782932028036527</v>
       </c>
       <c r="M19">
-        <v>0.7630620109570572</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9954808102716299</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.863229855207237</v>
+        <v>3.590748612351717</v>
       </c>
       <c r="C20">
-        <v>0.9126416614514028</v>
+        <v>1.178450663387594</v>
       </c>
       <c r="D20">
-        <v>0.1358000118401748</v>
+        <v>0.09604873188292373</v>
       </c>
       <c r="E20">
-        <v>0.01488354455548091</v>
+        <v>0.07466873432008114</v>
       </c>
       <c r="F20">
-        <v>9.567186522397805</v>
+        <v>1.281346178432372</v>
       </c>
       <c r="G20">
-        <v>0.0007784358185503939</v>
+        <v>0.9860238698341703</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.005416672928757471</v>
       </c>
       <c r="J20">
-        <v>0.1881404280737868</v>
+        <v>0.6064340163540578</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4153402290587849</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.07878698539204265</v>
       </c>
       <c r="M20">
-        <v>0.7965014818070131</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.034722146344379</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.441238554448773</v>
+        <v>4.049464591123979</v>
       </c>
       <c r="C21">
-        <v>1.056011777756851</v>
+        <v>1.332301960448831</v>
       </c>
       <c r="D21">
-        <v>0.156733408827705</v>
+        <v>0.1052776924784524</v>
       </c>
       <c r="E21">
-        <v>0.01475939997531217</v>
+        <v>0.07989404705518055</v>
       </c>
       <c r="F21">
-        <v>10.75588788615823</v>
+        <v>1.385508941752576</v>
       </c>
       <c r="G21">
-        <v>0.0007625716655882478</v>
+        <v>1.076829378651908</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.009338810507947493</v>
       </c>
       <c r="J21">
-        <v>0.2069295336941224</v>
+        <v>0.6397245736148136</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4258705320731835</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08235023579330658</v>
       </c>
       <c r="M21">
-        <v>0.9131093452089587</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.166896607343048</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.836392212585167</v>
+        <v>4.3516298182127</v>
       </c>
       <c r="C22">
-        <v>1.154528833012023</v>
+        <v>1.429958551089499</v>
       </c>
       <c r="D22">
-        <v>0.171061944848816</v>
+        <v>0.1109593904212005</v>
       </c>
       <c r="E22">
-        <v>0.01470806328514573</v>
+        <v>0.08338256140275035</v>
       </c>
       <c r="F22">
-        <v>11.56731632543466</v>
+        <v>1.46184907369269</v>
       </c>
       <c r="G22">
-        <v>0.0007521339279928445</v>
+        <v>1.144152930783889</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01234588051973606</v>
       </c>
       <c r="J22">
-        <v>0.2197993826207565</v>
+        <v>0.6655676279701765</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4369862247079936</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08503317075680172</v>
       </c>
       <c r="M22">
-        <v>0.9930798628701183</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.253075323672917</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.623702430905212</v>
+        <v>4.190998204822506</v>
       </c>
       <c r="C23">
-        <v>1.10145088392639</v>
+        <v>1.373571819307529</v>
       </c>
       <c r="D23">
-        <v>0.1633475153691393</v>
+        <v>0.1074623479561865</v>
       </c>
       <c r="E23">
-        <v>0.01473262193686242</v>
+        <v>0.08144461302213912</v>
       </c>
       <c r="F23">
-        <v>11.13069122595778</v>
+        <v>1.426109346733512</v>
       </c>
       <c r="G23">
-        <v>0.0007577143250657481</v>
+        <v>1.113333048652407</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01042149463494368</v>
       </c>
       <c r="J23">
-        <v>0.212870117552221</v>
+        <v>0.6543655087163529</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4340437748273942</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08373066005048457</v>
       </c>
       <c r="M23">
-        <v>0.9500122231060217</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.206004125265608</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.854035612618532</v>
+        <v>3.58446865701751</v>
       </c>
       <c r="C24">
-        <v>0.9103680103659713</v>
+        <v>1.169654246453661</v>
       </c>
       <c r="D24">
-        <v>0.1354671929239117</v>
+        <v>0.09520576192324626</v>
       </c>
       <c r="E24">
-        <v>0.01488605315232405</v>
+        <v>0.07448955240983679</v>
       </c>
       <c r="F24">
-        <v>9.548260700192031</v>
+        <v>1.287768764114702</v>
       </c>
       <c r="G24">
-        <v>0.0007786945963502003</v>
+        <v>0.9927660114915113</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.004934390942740841</v>
       </c>
       <c r="J24">
-        <v>0.1878419748711835</v>
+        <v>0.6100727536457384</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4199289186557493</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.07896101638518616</v>
       </c>
       <c r="M24">
-        <v>0.7946504874568916</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.031049901153004</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.081628970938766</v>
+        <v>2.935261163142513</v>
       </c>
       <c r="C25">
-        <v>0.7201055238298011</v>
+        <v>0.9546154497900829</v>
       </c>
       <c r="D25">
-        <v>0.1075068894535178</v>
+        <v>0.08244386496929934</v>
       </c>
       <c r="E25">
-        <v>0.01516967749207776</v>
+        <v>0.06751942197858085</v>
       </c>
       <c r="F25">
-        <v>7.956236792057979</v>
+        <v>1.149041761781845</v>
       </c>
       <c r="G25">
-        <v>0.0008013017517164143</v>
+        <v>0.8717637879564109</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001651378474934795</v>
       </c>
       <c r="J25">
-        <v>0.162830165776171</v>
+        <v>0.5671347835031213</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4086567960171905</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.07458392507910006</v>
       </c>
       <c r="M25">
-        <v>0.6396477346312253</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0.8452438412655638</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.461712566255699</v>
+        <v>2.456057279953711</v>
       </c>
       <c r="C2">
-        <v>0.789684349954598</v>
+        <v>0.8635482393864891</v>
       </c>
       <c r="D2">
-        <v>0.07230137103501733</v>
+        <v>0.08197330603607611</v>
       </c>
       <c r="E2">
-        <v>0.06263109980961445</v>
+        <v>0.06406105665016071</v>
       </c>
       <c r="F2">
-        <v>1.067110937201249</v>
+        <v>0.9592366584067662</v>
       </c>
       <c r="G2">
-        <v>0.8019185111916443</v>
+        <v>0.6739464156075172</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0004574842019904324</v>
+        <v>0.0005469160822366703</v>
       </c>
       <c r="J2">
-        <v>0.5456202746423457</v>
+        <v>0.5258194745032512</v>
       </c>
       <c r="K2">
-        <v>0.4108138557293266</v>
+        <v>0.3414101863934036</v>
       </c>
       <c r="L2">
-        <v>0.0722932926305262</v>
+        <v>0.1758626473971034</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.08946658093060478</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.06917372581169445</v>
       </c>
       <c r="O2">
-        <v>0.7078908761418106</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.728317875032964</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.140653722937941</v>
+        <v>2.138728900437627</v>
       </c>
       <c r="C3">
-        <v>0.6850968675064735</v>
+        <v>0.7442641810079635</v>
       </c>
       <c r="D3">
-        <v>0.0662414064269683</v>
+        <v>0.07456744059989973</v>
       </c>
       <c r="E3">
-        <v>0.05962203158736301</v>
+        <v>0.06097282357050915</v>
       </c>
       <c r="F3">
-        <v>1.008156766682035</v>
+        <v>0.9143842666847206</v>
       </c>
       <c r="G3">
-        <v>0.7504022446908891</v>
+        <v>0.6386530167953168</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0009836415706971913</v>
+        <v>0.0007007772491496311</v>
       </c>
       <c r="J3">
-        <v>0.5291174526060018</v>
+        <v>0.511342368054386</v>
       </c>
       <c r="K3">
-        <v>0.4094652607601503</v>
+        <v>0.346391256788813</v>
       </c>
       <c r="L3">
-        <v>0.07084127507170379</v>
+        <v>0.1815454207972316</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.08817667609513435</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.06821826193972313</v>
       </c>
       <c r="O3">
-        <v>0.6170540151637169</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6339190129876968</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.943734543863627</v>
+        <v>1.943808548697405</v>
       </c>
       <c r="C4">
-        <v>0.6216529854051487</v>
+        <v>0.6719809129201906</v>
       </c>
       <c r="D4">
-        <v>0.06262405196946474</v>
+        <v>0.07015761283329169</v>
       </c>
       <c r="E4">
-        <v>0.05787537699334955</v>
+        <v>0.05918690397725612</v>
       </c>
       <c r="F4">
-        <v>0.9734645555509474</v>
+        <v>0.8879411499572782</v>
       </c>
       <c r="G4">
-        <v>0.719968450847432</v>
+        <v>0.6180757598797442</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001757364075511969</v>
+        <v>0.001136095313563068</v>
       </c>
       <c r="J4">
-        <v>0.5197073663587162</v>
+        <v>0.5026435036572963</v>
       </c>
       <c r="K4">
-        <v>0.4091965911169737</v>
+        <v>0.3498168483713648</v>
       </c>
       <c r="L4">
-        <v>0.070083452408646</v>
+        <v>0.1850713056681528</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.08816117778681232</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.06776235273446929</v>
       </c>
       <c r="O4">
-        <v>0.5616615947550514</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5763023765553115</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.863335513876052</v>
+        <v>1.864170132362375</v>
       </c>
       <c r="C5">
-        <v>0.5969722798448345</v>
+        <v>0.6437109693507068</v>
       </c>
       <c r="D5">
-        <v>0.06128698855971493</v>
+        <v>0.06850278251379649</v>
       </c>
       <c r="E5">
-        <v>0.0572032407869294</v>
+        <v>0.05850000157768953</v>
       </c>
       <c r="F5">
-        <v>0.9583492506741607</v>
+        <v>0.8762623687117355</v>
       </c>
       <c r="G5">
-        <v>0.7064976123428863</v>
+        <v>0.6087979944707058</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.002252580319455966</v>
+        <v>0.001478808458329262</v>
       </c>
       <c r="J5">
-        <v>0.5153523628657268</v>
+        <v>0.4985309316381432</v>
       </c>
       <c r="K5">
-        <v>0.4084206301281128</v>
+        <v>0.3506536086002079</v>
       </c>
       <c r="L5">
-        <v>0.06976782482937338</v>
+        <v>0.1862077827219402</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.08816858752018852</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.06757326218647819</v>
       </c>
       <c r="O5">
-        <v>0.5394205732196653</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5531299186770156</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.849767885952588</v>
+        <v>1.850739912382664</v>
       </c>
       <c r="C6">
-        <v>0.5941096640993635</v>
+        <v>0.6402137392679776</v>
       </c>
       <c r="D6">
-        <v>0.06120404210712849</v>
+        <v>0.06836369794184094</v>
       </c>
       <c r="E6">
-        <v>0.05711203260856834</v>
+        <v>0.05840516045458166</v>
       </c>
       <c r="F6">
-        <v>0.9542345491080795</v>
+        <v>0.8729232966204208</v>
       </c>
       <c r="G6">
-        <v>0.7026330447809954</v>
+        <v>0.605874819434689</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.002438429683313537</v>
+        <v>0.001652986231510667</v>
       </c>
       <c r="J6">
-        <v>0.5137949479493358</v>
+        <v>0.4971042645342152</v>
       </c>
       <c r="K6">
-        <v>0.4073251490493384</v>
+        <v>0.3500107343265135</v>
       </c>
       <c r="L6">
-        <v>0.06966995977799328</v>
+        <v>0.1860208762626634</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.08796514084238893</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.06750147213640645</v>
       </c>
       <c r="O6">
-        <v>0.5360357788606578</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.549568534214032</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.942049390212105</v>
+        <v>1.942151131003641</v>
       </c>
       <c r="C7">
-        <v>0.6246740899139809</v>
+        <v>0.6738456200809253</v>
       </c>
       <c r="D7">
-        <v>0.06298165133492262</v>
+        <v>0.07074965904622132</v>
       </c>
       <c r="E7">
-        <v>0.05791808586080904</v>
+        <v>0.05928337595479505</v>
       </c>
       <c r="F7">
-        <v>0.968817578915818</v>
+        <v>0.8816422476179469</v>
       </c>
       <c r="G7">
-        <v>0.7152913517318495</v>
+        <v>0.616964151777637</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.002011584531741661</v>
+        <v>0.00143107955647892</v>
       </c>
       <c r="J7">
-        <v>0.5173420294638902</v>
+        <v>0.4939536835744747</v>
       </c>
       <c r="K7">
-        <v>0.4065244346882793</v>
+        <v>0.3467656989137105</v>
       </c>
       <c r="L7">
-        <v>0.06995008790626045</v>
+        <v>0.1836516189813295</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.08728958862603342</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.06761060338426361</v>
       </c>
       <c r="O7">
-        <v>0.5621910623965505</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5767207193234611</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.350133125374327</v>
+        <v>2.34579593946188</v>
       </c>
       <c r="C8">
-        <v>0.7579259403205754</v>
+        <v>0.8231794226791749</v>
       </c>
       <c r="D8">
-        <v>0.07068777692050787</v>
+        <v>0.08071406127109526</v>
       </c>
       <c r="E8">
-        <v>0.06164077463808937</v>
+        <v>0.06322946765164161</v>
       </c>
       <c r="F8">
-        <v>1.040571269579118</v>
+        <v>0.9309118079850975</v>
       </c>
       <c r="G8">
-        <v>0.7779330632018002</v>
+        <v>0.6659922730943464</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.000827775672929576</v>
+        <v>0.0008658744796044004</v>
       </c>
       <c r="J8">
-        <v>0.5367256024737088</v>
+        <v>0.4964995260587557</v>
       </c>
       <c r="K8">
-        <v>0.4067174823390758</v>
+        <v>0.3372763930771008</v>
       </c>
       <c r="L8">
-        <v>0.07159442669668437</v>
+        <v>0.1753045237230459</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.08701691983534587</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.06855451155220038</v>
       </c>
       <c r="O8">
-        <v>0.6775846532842706</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.696570877495617</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.154586019351711</v>
+        <v>3.138867368673175</v>
       </c>
       <c r="C9">
-        <v>1.020325762745813</v>
+        <v>1.122342308934833</v>
       </c>
       <c r="D9">
-        <v>0.08600596939858463</v>
+        <v>0.0998446209491064</v>
       </c>
       <c r="E9">
-        <v>0.06970785848813321</v>
+        <v>0.07160694855876315</v>
       </c>
       <c r="F9">
-        <v>1.202500569038406</v>
+        <v>1.052367944564011</v>
       </c>
       <c r="G9">
-        <v>0.9195434254357764</v>
+        <v>0.7684164983949557</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.002068505063893333</v>
+        <v>0.002273185451728388</v>
       </c>
       <c r="J9">
-        <v>0.5851349721241519</v>
+        <v>0.5302889149350847</v>
       </c>
       <c r="K9">
-        <v>0.4166949602003953</v>
+        <v>0.3289462516002715</v>
       </c>
       <c r="L9">
-        <v>0.07619177423613621</v>
+        <v>0.1624176608538512</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.09504122868406739</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.07184805707713693</v>
       </c>
       <c r="O9">
-        <v>0.9060037234212786</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.9335875218863663</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.74934646555613</v>
+        <v>3.722886300014977</v>
       </c>
       <c r="C10">
-        <v>1.220744534556559</v>
+        <v>1.344338903202072</v>
       </c>
       <c r="D10">
-        <v>0.09807405218145959</v>
+        <v>0.1164240378169694</v>
       </c>
       <c r="E10">
-        <v>0.07627409174977373</v>
+        <v>0.07879524819891159</v>
       </c>
       <c r="F10">
-        <v>1.329325619067347</v>
+        <v>1.133994110858012</v>
       </c>
       <c r="G10">
-        <v>1.029688107100981</v>
+        <v>0.8666554401780644</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.005987776216447749</v>
+        <v>0.005571160273820652</v>
       </c>
       <c r="J10">
-        <v>0.6242115363836547</v>
+        <v>0.5189692435258593</v>
       </c>
       <c r="K10">
-        <v>0.4263141895931213</v>
+        <v>0.3192507799211128</v>
       </c>
       <c r="L10">
-        <v>0.08032928724180266</v>
+        <v>0.1510860099015048</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1027757806005738</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.07482097728532722</v>
       </c>
       <c r="O10">
-        <v>1.077351399251974</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.110535114419548</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.020227508257392</v>
+        <v>3.987951503109514</v>
       </c>
       <c r="C11">
-        <v>1.31928275500934</v>
+        <v>1.441568907179601</v>
       </c>
       <c r="D11">
-        <v>0.1043463233055633</v>
+        <v>0.1275732392240343</v>
       </c>
       <c r="E11">
-        <v>0.07950242597226875</v>
+        <v>0.08293815648919178</v>
       </c>
       <c r="F11">
-        <v>1.382396928710847</v>
+        <v>1.143915334316318</v>
       </c>
       <c r="G11">
-        <v>1.074654910918255</v>
+        <v>0.9384061023869776</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.008849186588753888</v>
+        <v>0.007960569087981817</v>
       </c>
       <c r="J11">
-        <v>0.6394477669587246</v>
+        <v>0.4523309689806183</v>
       </c>
       <c r="K11">
-        <v>0.4273506786156744</v>
+        <v>0.3037998232587391</v>
       </c>
       <c r="L11">
-        <v>0.08221511810337745</v>
+        <v>0.142124076314893</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1023505348167646</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.07586413203582509</v>
       </c>
       <c r="O11">
-        <v>1.157570048468273</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.19251577203444</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.123633253639582</v>
+        <v>4.0889463003179</v>
       </c>
       <c r="C12">
-        <v>1.353855175065462</v>
+        <v>1.474286971774234</v>
       </c>
       <c r="D12">
-        <v>0.1064145947838</v>
+        <v>0.1318783708990594</v>
       </c>
       <c r="E12">
-        <v>0.08070318228772067</v>
+        <v>0.08457449345717549</v>
       </c>
       <c r="F12">
-        <v>1.40679446477327</v>
+        <v>1.14831183969963</v>
       </c>
       <c r="G12">
-        <v>1.095974746870084</v>
+        <v>0.9736237513872652</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.009877091800158055</v>
+        <v>0.008717303684418809</v>
       </c>
       <c r="J12">
-        <v>0.6474042801190478</v>
+        <v>0.4234524372661497</v>
       </c>
       <c r="K12">
-        <v>0.4301677818337026</v>
+        <v>0.2987145207536912</v>
       </c>
       <c r="L12">
-        <v>0.08307148426288791</v>
+        <v>0.139053670397093</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1025290832097276</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07634432925539869</v>
       </c>
       <c r="O12">
-        <v>1.187367239046139</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.222929587448064</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.101468560889032</v>
+        <v>4.067296223078358</v>
       </c>
       <c r="C13">
-        <v>1.345787257325128</v>
+        <v>1.466702570070936</v>
       </c>
       <c r="D13">
-        <v>0.105901127493226</v>
+        <v>0.1308634894989069</v>
       </c>
       <c r="E13">
-        <v>0.08043420860848016</v>
+        <v>0.08420824163711771</v>
       </c>
       <c r="F13">
-        <v>1.402299517160529</v>
+        <v>1.1481199551515</v>
       </c>
       <c r="G13">
-        <v>1.092156266110919</v>
+        <v>0.9664950512932222</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.009612896273865523</v>
+        <v>0.008503549394543342</v>
       </c>
       <c r="J13">
-        <v>0.6460827236899291</v>
+        <v>0.4301294648499407</v>
       </c>
       <c r="K13">
-        <v>0.4300106940999484</v>
+        <v>0.3001736402797626</v>
       </c>
       <c r="L13">
-        <v>0.08290751830136145</v>
+        <v>0.1398354312016714</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1026411069547351</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.0762604193688361</v>
       </c>
       <c r="O13">
-        <v>1.180796160532495</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.216240385356059</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.028779221244349</v>
+        <v>3.996303138116218</v>
       </c>
       <c r="C14">
-        <v>1.32186261566568</v>
+        <v>1.444033151474059</v>
       </c>
       <c r="D14">
-        <v>0.1044875585644149</v>
+        <v>0.1278898966268969</v>
       </c>
       <c r="E14">
-        <v>0.07959678363165423</v>
+        <v>0.08306679438312514</v>
       </c>
       <c r="F14">
-        <v>1.384726187717433</v>
+        <v>1.144601913729375</v>
       </c>
       <c r="G14">
-        <v>1.076736783645799</v>
+        <v>0.9414907929012344</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.008915053953984398</v>
+        <v>0.008000768307676154</v>
       </c>
       <c r="J14">
-        <v>0.640268640445413</v>
+        <v>0.450162925728506</v>
       </c>
       <c r="K14">
-        <v>0.4277732351089654</v>
+        <v>0.3035384718508958</v>
       </c>
       <c r="L14">
-        <v>0.08229423564696248</v>
+        <v>0.1419239183696277</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1024296104414582</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07591195427223596</v>
       </c>
       <c r="O14">
-        <v>1.159956030302098</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1.194958822453131</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.984059095610235</v>
+        <v>3.952623950694942</v>
       </c>
       <c r="C15">
-        <v>1.308443857463715</v>
+        <v>1.431159369098566</v>
       </c>
       <c r="D15">
-        <v>0.1037567288319536</v>
+        <v>0.1262575989969861</v>
       </c>
       <c r="E15">
-        <v>0.07910527241624976</v>
+        <v>0.08239950246575489</v>
       </c>
       <c r="F15">
-        <v>1.372486332709641</v>
+        <v>1.140838927922104</v>
       </c>
       <c r="G15">
-        <v>1.065787208878433</v>
+        <v>0.9254943769010282</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.008581970871265554</v>
+        <v>0.007801385092677471</v>
       </c>
       <c r="J15">
-        <v>0.6359442741044887</v>
+        <v>0.4612647080807335</v>
       </c>
       <c r="K15">
-        <v>0.4255247802491198</v>
+        <v>0.3048325033898784</v>
       </c>
       <c r="L15">
-        <v>0.08187964678690207</v>
+        <v>0.1429465848618499</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1019887683221938</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07565951094261436</v>
       </c>
       <c r="O15">
-        <v>1.14749987577872</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>1.182199106442766</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.729753321019302</v>
+        <v>3.703832957959889</v>
       </c>
       <c r="C16">
-        <v>1.224409333722576</v>
+        <v>1.347645181333405</v>
       </c>
       <c r="D16">
-        <v>0.09877462968472628</v>
+        <v>0.1168576692815577</v>
       </c>
       <c r="E16">
-        <v>0.07621967771235916</v>
+        <v>0.07868261725426962</v>
       </c>
       <c r="F16">
-        <v>1.31299058798021</v>
+        <v>1.1221761505209</v>
       </c>
       <c r="G16">
-        <v>1.013696283110619</v>
+        <v>0.8515853454918414</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.006433212224583151</v>
+        <v>0.006198697005781462</v>
       </c>
       <c r="J16">
-        <v>0.6165857433823021</v>
+        <v>0.5172911950458996</v>
       </c>
       <c r="K16">
-        <v>0.4186736079889855</v>
+        <v>0.3145092457528165</v>
       </c>
       <c r="L16">
-        <v>0.0798449204308227</v>
+        <v>0.1496437524858152</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.100503236061698</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07443210582346893</v>
       </c>
       <c r="O16">
-        <v>1.074562042004921</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>1.107451160764683</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.574153799121746</v>
+        <v>3.551352846031932</v>
       </c>
       <c r="C17">
-        <v>1.173259791758369</v>
+        <v>1.294399904942111</v>
       </c>
       <c r="D17">
-        <v>0.0957550403462335</v>
+        <v>0.1117618468880579</v>
       </c>
       <c r="E17">
-        <v>0.07448970216259809</v>
+        <v>0.07658488897815019</v>
       </c>
       <c r="F17">
-        <v>1.277265239056703</v>
+        <v>1.106283972264023</v>
       </c>
       <c r="G17">
-        <v>0.9824073353939724</v>
+        <v>0.813930461911383</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.005324368987924544</v>
+        <v>0.005349706674580901</v>
       </c>
       <c r="J17">
-        <v>0.6050626355019944</v>
+        <v>0.5403069477792428</v>
       </c>
       <c r="K17">
-        <v>0.4147540557703095</v>
+        <v>0.3188185002419175</v>
       </c>
       <c r="L17">
-        <v>0.07865357007830198</v>
+        <v>0.1532193353578144</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.09904715903742556</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07366195502812545</v>
       </c>
       <c r="O17">
-        <v>1.030050015469726</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>1.061664902732119</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.485367320823627</v>
+        <v>3.464216751128731</v>
       </c>
       <c r="C18">
-        <v>1.140929816226105</v>
+        <v>1.260092795910509</v>
       </c>
       <c r="D18">
-        <v>0.09369525422048497</v>
+        <v>0.1087274742250202</v>
       </c>
       <c r="E18">
-        <v>0.07346245467638823</v>
+        <v>0.0753982152953796</v>
       </c>
       <c r="F18">
-        <v>1.260887424484224</v>
+        <v>1.098866715460545</v>
       </c>
       <c r="G18">
-        <v>0.9685930331261545</v>
+        <v>0.7981503111395369</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.004531337528678847</v>
+        <v>0.004626959564734356</v>
       </c>
       <c r="J18">
-        <v>0.6005676929375454</v>
+        <v>0.5506461195636092</v>
       </c>
       <c r="K18">
-        <v>0.4148861876678112</v>
+        <v>0.322435351377635</v>
       </c>
       <c r="L18">
-        <v>0.07809912837251431</v>
+        <v>0.1556995986823502</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0986992843341703</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07330996193111616</v>
       </c>
       <c r="O18">
-        <v>1.003790233450623</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>1.03466716143528</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.454883752367607</v>
+        <v>3.434317265724417</v>
       </c>
       <c r="C19">
-        <v>1.132356932385903</v>
+        <v>1.250655966156842</v>
       </c>
       <c r="D19">
-        <v>0.09325908140722561</v>
+        <v>0.1079945213137705</v>
       </c>
       <c r="E19">
-        <v>0.07315281613714575</v>
+        <v>0.07504029531652279</v>
       </c>
       <c r="F19">
-        <v>1.252377396699657</v>
+        <v>1.093545920879791</v>
       </c>
       <c r="G19">
-        <v>0.9609058163577373</v>
+        <v>0.7906994408026691</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.004447735958200916</v>
+        <v>0.00460421552836543</v>
       </c>
       <c r="J19">
-        <v>0.5975160383626132</v>
+        <v>0.5520528627284307</v>
       </c>
       <c r="K19">
-        <v>0.4131821935692201</v>
+        <v>0.3222256068695231</v>
       </c>
       <c r="L19">
-        <v>0.07782932028036527</v>
+        <v>0.1560166588046954</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.09803163811725923</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07311483458792267</v>
       </c>
       <c r="O19">
-        <v>0.9954808102716299</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.026059955617704</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.590748612351717</v>
+        <v>3.567621037625031</v>
       </c>
       <c r="C20">
-        <v>1.178450663387594</v>
+        <v>1.299907814087362</v>
       </c>
       <c r="D20">
-        <v>0.09604873188292373</v>
+        <v>0.1122539979255919</v>
       </c>
       <c r="E20">
-        <v>0.07466873432008114</v>
+        <v>0.07679817189284321</v>
       </c>
       <c r="F20">
-        <v>1.281346178432372</v>
+        <v>1.108398371335994</v>
       </c>
       <c r="G20">
-        <v>0.9860238698341703</v>
+        <v>0.8179238367514614</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.005416672928757471</v>
+        <v>0.005412657746035165</v>
       </c>
       <c r="J20">
-        <v>0.6064340163540578</v>
+        <v>0.5384527903473924</v>
       </c>
       <c r="K20">
-        <v>0.4153402290587849</v>
+        <v>0.3185558824166215</v>
       </c>
       <c r="L20">
-        <v>0.07878698539204265</v>
+        <v>0.1529085447544034</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.09927459851712683</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.07375218819952423</v>
       </c>
       <c r="O20">
-        <v>1.034722146344379</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.06648248626562</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.049464591123979</v>
+        <v>4.016420782497164</v>
       </c>
       <c r="C21">
-        <v>1.332301960448831</v>
+        <v>1.450138298075728</v>
       </c>
       <c r="D21">
-        <v>0.1052776924784524</v>
+        <v>0.1301223817458492</v>
       </c>
       <c r="E21">
-        <v>0.07989404705518055</v>
+        <v>0.08367004086682073</v>
       </c>
       <c r="F21">
-        <v>1.385508941752576</v>
+        <v>1.134007164943114</v>
       </c>
       <c r="G21">
-        <v>1.076829378651908</v>
+        <v>0.9560543353000384</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.009338810507947493</v>
+        <v>0.008401080043886289</v>
       </c>
       <c r="J21">
-        <v>0.6397245736148136</v>
+        <v>0.4234093485263344</v>
       </c>
       <c r="K21">
-        <v>0.4258705320731835</v>
+        <v>0.2977623794480095</v>
       </c>
       <c r="L21">
-        <v>0.08235023579330658</v>
+        <v>0.1396803166972873</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1005012629623927</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.07579045714813049</v>
       </c>
       <c r="O21">
-        <v>1.166896607343048</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.201778701000805</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.3516298182127</v>
+        <v>4.311348308635047</v>
       </c>
       <c r="C22">
-        <v>1.429958551089499</v>
+        <v>1.543626407969668</v>
       </c>
       <c r="D22">
-        <v>0.1109593904212005</v>
+        <v>0.1421096277364171</v>
       </c>
       <c r="E22">
-        <v>0.08338256140275035</v>
+        <v>0.08837959619782865</v>
       </c>
       <c r="F22">
-        <v>1.46184907369269</v>
+        <v>1.153676090700202</v>
       </c>
       <c r="G22">
-        <v>1.144152930783889</v>
+        <v>1.061053286094378</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01234588051973606</v>
+        <v>0.0104922515364807</v>
       </c>
       <c r="J22">
-        <v>0.6655676279701765</v>
+        <v>0.3537935756705082</v>
       </c>
       <c r="K22">
-        <v>0.4369862247079936</v>
+        <v>0.2861543621057621</v>
       </c>
       <c r="L22">
-        <v>0.08503317075680172</v>
+        <v>0.1319523708938384</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1023870801615558</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.07739599925709939</v>
       </c>
       <c r="O22">
-        <v>1.253075323672917</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.289808458681804</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.190998204822506</v>
+        <v>4.154658947040446</v>
       </c>
       <c r="C23">
-        <v>1.373571819307529</v>
+        <v>1.492481140133634</v>
       </c>
       <c r="D23">
-        <v>0.1074623479561865</v>
+        <v>0.1344782494083887</v>
       </c>
       <c r="E23">
-        <v>0.08144461302213912</v>
+        <v>0.08562477035493643</v>
       </c>
       <c r="F23">
-        <v>1.426109346733512</v>
+        <v>1.153214410166456</v>
       </c>
       <c r="G23">
-        <v>1.113333048652407</v>
+        <v>1.000806055428669</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01042149463494368</v>
+        <v>0.009029523468906397</v>
       </c>
       <c r="J23">
-        <v>0.6543655087163529</v>
+        <v>0.4048106531459013</v>
       </c>
       <c r="K23">
-        <v>0.4340437748273942</v>
+        <v>0.2965905219493443</v>
       </c>
       <c r="L23">
-        <v>0.08373066005048457</v>
+        <v>0.1374737269977153</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1031414975428717</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.07673528588237133</v>
       </c>
       <c r="O23">
-        <v>1.206004125265608</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.241979592282945</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.58446865701751</v>
+        <v>3.561376548474698</v>
       </c>
       <c r="C24">
-        <v>1.169654246453661</v>
+        <v>1.291122346818611</v>
       </c>
       <c r="D24">
-        <v>0.09520576192324626</v>
+        <v>0.1113253741820586</v>
       </c>
       <c r="E24">
-        <v>0.07448955240983679</v>
+        <v>0.07660989843665433</v>
       </c>
       <c r="F24">
-        <v>1.287768764114702</v>
+        <v>1.114417320606762</v>
       </c>
       <c r="G24">
-        <v>0.9927660114915113</v>
+        <v>0.8230926103430107</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.004934390942740841</v>
+        <v>0.00483642995108724</v>
       </c>
       <c r="J24">
-        <v>0.6100727536457384</v>
+        <v>0.542782908305341</v>
       </c>
       <c r="K24">
-        <v>0.4199289186557493</v>
+        <v>0.3223229792708793</v>
       </c>
       <c r="L24">
-        <v>0.07896101638518616</v>
+        <v>0.1543652327513207</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1006078148007248</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.07391669105578558</v>
       </c>
       <c r="O24">
-        <v>1.031049901153004</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.062851216502978</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.935261163142513</v>
+        <v>2.923107662186453</v>
       </c>
       <c r="C25">
-        <v>0.9546154497900829</v>
+        <v>1.047859843526396</v>
       </c>
       <c r="D25">
-        <v>0.08244386496929934</v>
+        <v>0.0948476374602194</v>
       </c>
       <c r="E25">
-        <v>0.06751942197858085</v>
+        <v>0.06923636307183756</v>
       </c>
       <c r="F25">
-        <v>1.149041761781845</v>
+        <v>1.014705851081871</v>
       </c>
       <c r="G25">
-        <v>0.8717637879564109</v>
+        <v>0.7285648622842729</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.001651378474934795</v>
+        <v>0.002017055660482825</v>
       </c>
       <c r="J25">
-        <v>0.5671347835031213</v>
+        <v>0.5266170317623704</v>
       </c>
       <c r="K25">
-        <v>0.4086567960171905</v>
+        <v>0.3284158656075071</v>
       </c>
       <c r="L25">
-        <v>0.07458392507910006</v>
+        <v>0.1649271011327116</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.09128443427973565</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.07067098911649694</v>
       </c>
       <c r="O25">
-        <v>0.8452438412655638</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.8705215737907182</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
